--- a/Correlations/lowSpearman.xlsx
+++ b/Correlations/lowSpearman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>keyword</t>
   </si>
@@ -31,325 +31,349 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
+    <t>sintomas do covid</t>
+  </si>
+  <si>
+    <t>covid-19</t>
+  </si>
+  <si>
+    <t>sintomas do covid 19</t>
+  </si>
+  <si>
+    <t>dor de garganta</t>
+  </si>
+  <si>
+    <t>dor de cabeça</t>
+  </si>
+  <si>
+    <t>perda olfato</t>
+  </si>
+  <si>
+    <t>olfato e paladar perda</t>
+  </si>
+  <si>
+    <t>perda de paladar</t>
+  </si>
+  <si>
+    <t>login caixa auxilio emergencial</t>
+  </si>
+  <si>
+    <t>olfato</t>
+  </si>
+  <si>
+    <t>paladar e olfato</t>
+  </si>
+  <si>
+    <t>covid 19 sintomas</t>
+  </si>
+  <si>
+    <t>exame cotonete</t>
+  </si>
+  <si>
+    <t>teste coronavírus</t>
+  </si>
+  <si>
+    <t>termometro digital</t>
+  </si>
+  <si>
+    <t>termometro</t>
+  </si>
+  <si>
+    <t>febre</t>
+  </si>
+  <si>
+    <t>falta de ar sintomas</t>
+  </si>
+  <si>
+    <t>falta de ar</t>
+  </si>
+  <si>
+    <t>ansiedade</t>
+  </si>
+  <si>
+    <t>tosse</t>
+  </si>
+  <si>
+    <t>cansaço</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
+  </si>
+  <si>
+    <t>nariz entupido</t>
+  </si>
+  <si>
+    <t>oximetro de dedo</t>
+  </si>
+  <si>
+    <t>ivermectina coronavírus</t>
+  </si>
+  <si>
+    <t>azitromicina</t>
+  </si>
+  <si>
+    <t>casos novos coronavírus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>seguro desemprego emergencial</t>
+  </si>
+  <si>
+    <t>como dar entrada no seguro desemprego</t>
+  </si>
+  <si>
+    <t>auxilio desemprego</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico pandemia</t>
+  </si>
+  <si>
+    <t>coronavírus no brasil</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>brasil pico da pandemia</t>
+  </si>
+  <si>
+    <t>covid brasil</t>
+  </si>
+  <si>
+    <t>cesta básica</t>
+  </si>
+  <si>
+    <t>cesta básica cras</t>
+  </si>
+  <si>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>grupo de risco covid</t>
+  </si>
+  <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara n95</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara descartável</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>coronavírus vacina</t>
+  </si>
+  <si>
+    <t>vacina corona</t>
+  </si>
+  <si>
+    <t>vacina china</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>pcr coronavírus</t>
+  </si>
+  <si>
+    <t>teste rápido coronavírus</t>
+  </si>
+  <si>
+    <t>isolamento social</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>como funciona lockdown</t>
+  </si>
+  <si>
+    <t>lockdown brasil</t>
+  </si>
+  <si>
+    <t>lockdown covid</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes corona</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>cloroquina</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>máscara oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>álcool gel</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
+  </si>
+  <si>
+    <t>medicamento coronavírus</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>reabertura comercio</t>
+  </si>
+  <si>
+    <t>reabertura shopping</t>
+  </si>
+  <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
+    <t>plano de reabertura</t>
+  </si>
+  <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
+    <t>oximetro</t>
+  </si>
+  <si>
+    <t>para que serve ivermectina</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>decreto lockdown</t>
+  </si>
+  <si>
+    <t>taxa de ocupação de leitos</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>teste igg</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
     <t>covid igg</t>
   </si>
   <si>
     <t>covid igm igg</t>
   </si>
   <si>
-    <t>exame covid</t>
-  </si>
-  <si>
     <t>exame igg</t>
   </si>
   <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
-    <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
-  </si>
-  <si>
-    <t>covid pcr</t>
-  </si>
-  <si>
     <t>estou com covid</t>
-  </si>
-  <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
-    <t>peguei covid</t>
-  </si>
-  <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>ansiedade</t>
-  </si>
-  <si>
-    <t>auxilio desemprego</t>
-  </si>
-  <si>
-    <t>azitromicina</t>
-  </si>
-  <si>
-    <t>brasil coronavirus mortes</t>
-  </si>
-  <si>
-    <t>brasil pico da pandemia</t>
-  </si>
-  <si>
-    <t>cansaço</t>
-  </si>
-  <si>
-    <t>cesta basica cras</t>
-  </si>
-  <si>
-    <t>cesta básica</t>
-  </si>
-  <si>
-    <t>cloroquina</t>
-  </si>
-  <si>
-    <t>como dar entrada no seguro desemprego</t>
-  </si>
-  <si>
-    <t>como fazer máscara</t>
-  </si>
-  <si>
-    <t>como funciona lockdown</t>
-  </si>
-  <si>
-    <t>coronavirus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavirus grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus pico brasil</t>
-  </si>
-  <si>
-    <t>coronavirus vacina</t>
-  </si>
-  <si>
-    <t>covid 19 oms</t>
-  </si>
-  <si>
-    <t>covid 19 sintomas</t>
-  </si>
-  <si>
-    <t>covid 19</t>
-  </si>
-  <si>
-    <t>covid brasil</t>
-  </si>
-  <si>
-    <t>covid-19</t>
-  </si>
-  <si>
-    <t>covid</t>
-  </si>
-  <si>
-    <t>decreto lockdown</t>
-  </si>
-  <si>
-    <t>decreto quarentena</t>
-  </si>
-  <si>
-    <t>dor de cabeça</t>
-  </si>
-  <si>
-    <t>falta de ar sintomas</t>
-  </si>
-  <si>
-    <t>falta de ar</t>
-  </si>
-  <si>
-    <t>fazer máscara</t>
-  </si>
-  <si>
-    <t>fim quarentena</t>
-  </si>
-  <si>
-    <t>grupo de risco covid</t>
-  </si>
-  <si>
-    <t>isolamento social</t>
-  </si>
-  <si>
-    <t>ivermectina coronavirus</t>
-  </si>
-  <si>
-    <t>leitos de uti</t>
-  </si>
-  <si>
-    <t>lockdown brasil</t>
-  </si>
-  <si>
-    <t>lockdown covid</t>
-  </si>
-  <si>
-    <t>login caixa auxilio emergencial</t>
-  </si>
-  <si>
-    <t>mascara de tecido</t>
-  </si>
-  <si>
-    <t>mascara oms</t>
-  </si>
-  <si>
-    <t>mascara</t>
-  </si>
-  <si>
-    <t>mascaras</t>
-  </si>
-  <si>
-    <t>mortes por coronavirus</t>
-  </si>
-  <si>
-    <t>máscara de tecido como fazer</t>
-  </si>
-  <si>
-    <t>máscara proteção</t>
-  </si>
-  <si>
-    <t>máscara tecido</t>
-  </si>
-  <si>
-    <t>nariz entupido</t>
-  </si>
-  <si>
-    <t>olfato e paladar perda</t>
-  </si>
-  <si>
-    <t>olfato</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>oximetro de dedo</t>
-  </si>
-  <si>
-    <t>oximetro</t>
-  </si>
-  <si>
-    <t>paladar e olfato</t>
-  </si>
-  <si>
-    <t>pcr coronavirus</t>
-  </si>
-  <si>
-    <t>perda de paladar</t>
-  </si>
-  <si>
-    <t>perda olfato</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavirus</t>
-  </si>
-  <si>
-    <t>pico pandemia</t>
-  </si>
-  <si>
-    <t>quarentena brasil</t>
-  </si>
-  <si>
-    <t>quarentena dia</t>
-  </si>
-  <si>
-    <t>quarentena</t>
-  </si>
-  <si>
-    <t>reabertura comercio</t>
-  </si>
-  <si>
-    <t>seguro desemprego emergencial</t>
-  </si>
-  <si>
-    <t>seguro desemprego entrada</t>
-  </si>
-  <si>
-    <t>sintomas do covid 19</t>
-  </si>
-  <si>
-    <t>sintomas do covid</t>
-  </si>
-  <si>
-    <t>taxa de ocupação de leitos</t>
-  </si>
-  <si>
-    <t>termometro digital</t>
-  </si>
-  <si>
-    <t>termometro</t>
-  </si>
-  <si>
-    <t>teste coronavirus</t>
-  </si>
-  <si>
-    <t>teste rapido de coronavirus</t>
-  </si>
-  <si>
-    <t>teste rápido coronavirus</t>
-  </si>
-  <si>
-    <t>vacina china</t>
   </si>
 </sst>
 </file>
@@ -707,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,10 +762,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
+        <v>0.4197313527511587</v>
       </c>
       <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>0.4454786450498039</v>
+      </c>
+      <c r="E2">
+        <v>0.3160344483121423</v>
+      </c>
+      <c r="F2">
+        <v>0.1010585807444151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +782,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
+        <v>0.2585970319286385</v>
       </c>
       <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>-0.08611633117926655</v>
+      </c>
+      <c r="E3">
+        <v>-0.2271124960593029</v>
+      </c>
+      <c r="F3">
+        <v>-0.2294578574120354</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,13 +802,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
+        <v>0.1390539067250994</v>
       </c>
       <c r="D4">
-        <v>0.8593585306505142</v>
+        <v>-0.01249825914055076</v>
       </c>
       <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>-0.1283764733801126</v>
+      </c>
+      <c r="F4">
+        <v>-0.3038271726493589</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -783,7 +822,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>-0.4002968236136627</v>
+      </c>
+      <c r="D5">
+        <v>-0.3456140432280341</v>
+      </c>
+      <c r="E5">
+        <v>-0.4420726651468247</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -794,10 +839,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
+        <v>0.1796168468281138</v>
       </c>
       <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>-0.1214925399081641</v>
+      </c>
+      <c r="E6">
+        <v>-0.3103428386752006</v>
+      </c>
+      <c r="F6">
+        <v>-0.3933089804893422</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -808,10 +859,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
+        <v>0.4404329806050701</v>
       </c>
       <c r="D7">
-        <v>0.74917170674512</v>
+        <v>0.2373885397516904</v>
+      </c>
+      <c r="E7">
+        <v>0.1035747113762435</v>
+      </c>
+      <c r="F7">
+        <v>-0.01432503127483249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -822,10 +879,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
+        <v>0.4396883374333795</v>
       </c>
       <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.1920677159094122</v>
+      </c>
+      <c r="E8">
+        <v>0.0332463726861167</v>
+      </c>
+      <c r="F8">
+        <v>-0.08327452882570521</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,10 +899,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
+        <v>0.4400578120414418</v>
       </c>
       <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>0.2668029545830032</v>
+      </c>
+      <c r="E9">
+        <v>0.1597701995404885</v>
+      </c>
+      <c r="F9">
+        <v>0.05615917598886166</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -850,7 +919,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.4094410341432879</v>
+      </c>
+      <c r="D10">
+        <v>0.03127184239075382</v>
+      </c>
+      <c r="E10">
+        <v>-0.09951777506066088</v>
+      </c>
+      <c r="F10">
+        <v>-0.02302896283943475</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -861,7 +939,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.4062753516980959</v>
+      </c>
+      <c r="D11">
+        <v>0.2638796067098659</v>
+      </c>
+      <c r="E11">
+        <v>0.15647914113798</v>
+      </c>
+      <c r="F11">
+        <v>0.001622918628678979</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -872,7 +959,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>0.4558372755684627</v>
+      </c>
+      <c r="D12">
+        <v>0.2627886847262772</v>
+      </c>
+      <c r="E12">
+        <v>0.1190241295740509</v>
+      </c>
+      <c r="F12">
+        <v>-0.02378264085954462</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -883,7 +979,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.7261954708104643</v>
+        <v>0.167812967528159</v>
+      </c>
+      <c r="D13">
+        <v>-0.08921962239293382</v>
+      </c>
+      <c r="E13">
+        <v>-0.2520807642596114</v>
+      </c>
+      <c r="F13">
+        <v>-0.3665113661539111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -894,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.7137743658147547</v>
+        <v>0.4954866452022257</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -905,16 +1010,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.7953752379768579</v>
+        <v>-0.004940540875501637</v>
       </c>
       <c r="D15">
-        <v>0.83875518007481</v>
-      </c>
-      <c r="E15">
-        <v>0.7762583001720091</v>
-      </c>
-      <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>-0.3449422834817572</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -925,10 +1024,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.7537458364548152</v>
+        <v>0.3020254320587474</v>
       </c>
       <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>-0.2212659462290934</v>
+      </c>
+      <c r="E16">
+        <v>-0.4175695191886904</v>
+      </c>
+      <c r="F16">
+        <v>-0.3691607121186567</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +1044,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.8478460317990307</v>
+        <v>0.2418086812469647</v>
+      </c>
+      <c r="D17">
+        <v>-0.2830342645556074</v>
+      </c>
+      <c r="E17">
+        <v>-0.4694246017151212</v>
+      </c>
+      <c r="F17">
+        <v>-0.4236552318899647</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.7749648084439593</v>
+        <v>-0.2806250990287105</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,13 +1075,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.8660719810898639</v>
+        <v>0.02851196400096977</v>
       </c>
       <c r="D19">
-        <v>0.8409102192791336</v>
+        <v>-0.2534666803574407</v>
       </c>
       <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>-0.3939386425395907</v>
+      </c>
+      <c r="F19">
+        <v>-0.4832968863905549</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -977,11 +1094,17 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20">
+        <v>0.05231579312663336</v>
+      </c>
       <c r="D20">
-        <v>0.8863588848128726</v>
+        <v>-0.2575889620840234</v>
       </c>
       <c r="E20">
-        <v>0.8075716857450457</v>
+        <v>-0.3946212765007739</v>
+      </c>
+      <c r="F20">
+        <v>-0.4834141561102285</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -991,8 +1114,17 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="C21">
+        <v>0.273116735725978</v>
+      </c>
       <c r="D21">
-        <v>0.7430022762093478</v>
+        <v>0.08817636273489717</v>
+      </c>
+      <c r="E21">
+        <v>-0.06783036145280735</v>
+      </c>
+      <c r="F21">
+        <v>-0.1386749751997503</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1002,14 +1134,11 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22">
+        <v>-0.4146486810122969</v>
+      </c>
       <c r="D22">
-        <v>0.8651108413496054</v>
-      </c>
-      <c r="E22">
-        <v>0.8903854857263523</v>
-      </c>
-      <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>-0.4930453104029736</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1019,11 +1148,17 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23">
+        <v>-0.1556911999890307</v>
+      </c>
       <c r="D23">
-        <v>0.8793006990879781</v>
+        <v>0.1663904720080084</v>
       </c>
       <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>0.2388729077485896</v>
+      </c>
+      <c r="F23">
+        <v>0.09219908224496999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1033,11 +1168,11 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24">
+        <v>-0.1894227535929994</v>
+      </c>
       <c r="D24">
-        <v>0.907559021844549</v>
-      </c>
-      <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>-0.4916738666822577</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1047,11 +1182,17 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25">
+        <v>0.1418495030843733</v>
+      </c>
       <c r="D25">
-        <v>0.8197463251411996</v>
+        <v>-0.04950985339250409</v>
       </c>
       <c r="E25">
-        <v>0.7524949677173879</v>
+        <v>-0.197023716614191</v>
+      </c>
+      <c r="F25">
+        <v>-0.2580383313091815</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1061,8 +1202,17 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <v>0.4762445635825104</v>
+      </c>
+      <c r="D26">
+        <v>0.09665057593592541</v>
+      </c>
       <c r="E26">
-        <v>-0.7121454871406987</v>
+        <v>-0.02370357530796672</v>
+      </c>
+      <c r="F26">
+        <v>-0.08278490722690431</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1072,11 +1222,17 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="C27">
+        <v>0.4781375057890669</v>
+      </c>
+      <c r="D27">
+        <v>0.1458832578228693</v>
+      </c>
       <c r="E27">
-        <v>-0.7472459455723246</v>
+        <v>-0.003202428258635982</v>
       </c>
       <c r="F27">
-        <v>-0.7569340707161413</v>
+        <v>-0.06267829479488764</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1086,8 +1242,17 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28">
+        <v>0.4162200654687641</v>
+      </c>
+      <c r="D28">
+        <v>0.1883373589734123</v>
+      </c>
       <c r="E28">
-        <v>-0.7119569106005142</v>
+        <v>0.02668970510393794</v>
+      </c>
+      <c r="F28">
+        <v>-0.1234341429268125</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1097,8 +1262,17 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="C29">
+        <v>-0.2223539577616998</v>
+      </c>
+      <c r="D29">
+        <v>-0.3636958895110666</v>
+      </c>
       <c r="E29">
-        <v>-0.7144535483362131</v>
+        <v>-0.4482619767228297</v>
+      </c>
+      <c r="F29">
+        <v>-0.4124921843497744</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1108,11 +1282,17 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30">
+        <v>0.1321882966416743</v>
+      </c>
+      <c r="D30">
+        <v>-0.2520346083402041</v>
+      </c>
       <c r="E30">
-        <v>-0.720708156800972</v>
+        <v>-0.4169961941539187</v>
       </c>
       <c r="F30">
-        <v>-0.7437737509543705</v>
+        <v>-0.4409541557822137</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,8 +1302,17 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="C31">
+        <v>0.4657168201625583</v>
+      </c>
+      <c r="D31">
+        <v>0.05882355048124699</v>
+      </c>
       <c r="E31">
-        <v>-0.7031682062064951</v>
+        <v>-0.07878683600551568</v>
+      </c>
+      <c r="F31">
+        <v>0.002894356007591722</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1133,11 +1322,17 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
+      <c r="C32">
+        <v>0.2160618409158264</v>
+      </c>
+      <c r="D32">
+        <v>-0.115809185746401</v>
+      </c>
       <c r="E32">
-        <v>-0.7322919857358914</v>
+        <v>-0.2598745315933235</v>
       </c>
       <c r="F32">
-        <v>-0.7398555439957212</v>
+        <v>-0.3164619519391339</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1147,11 +1342,17 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33">
+        <v>0.3442340916100402</v>
+      </c>
+      <c r="D33">
+        <v>-0.07385986721754235</v>
+      </c>
       <c r="E33">
-        <v>-0.7568797551641043</v>
+        <v>-0.2100530125022019</v>
       </c>
       <c r="F33">
-        <v>-0.759501318913578</v>
+        <v>-0.1437548556308732</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1161,8 +1362,14 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="E34">
-        <v>-0.7097269059286252</v>
+      <c r="C34">
+        <v>0.1087058533188739</v>
+      </c>
+      <c r="D34">
+        <v>-0.3568637114742176</v>
+      </c>
+      <c r="F34">
+        <v>-0.4880190562240558</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1172,8 +1379,14 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="C35">
+        <v>0.0524792838192077</v>
+      </c>
+      <c r="D35">
+        <v>-0.3499076353692326</v>
+      </c>
       <c r="F35">
-        <v>-0.7951054974980791</v>
+        <v>-0.4728776022193335</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1183,8 +1396,11 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="F36">
-        <v>-0.7395607830381649</v>
+      <c r="C36">
+        <v>-0.04153576551400572</v>
+      </c>
+      <c r="D36">
+        <v>-0.4968024431605709</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1194,6 +1410,12 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="C37">
+        <v>0.0254951333132065</v>
+      </c>
+      <c r="D37">
+        <v>-0.378949945370724</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -1202,6 +1424,12 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38">
+        <v>0.0254951333132065</v>
+      </c>
+      <c r="D38">
+        <v>-0.378949945370724</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -1210,6 +1438,18 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="C39">
+        <v>0.3789277321483404</v>
+      </c>
+      <c r="D39">
+        <v>-0.1269038194560016</v>
+      </c>
+      <c r="E39">
+        <v>-0.2923271720762802</v>
+      </c>
+      <c r="F39">
+        <v>-0.2258843700243513</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -1218,6 +1458,9 @@
       <c r="B40" t="s">
         <v>43</v>
       </c>
+      <c r="C40">
+        <v>-0.09416869755150642</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -1226,6 +1469,12 @@
       <c r="B41" t="s">
         <v>44</v>
       </c>
+      <c r="C41">
+        <v>0.008815252955647767</v>
+      </c>
+      <c r="D41">
+        <v>-0.3440330404038974</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -1234,6 +1483,18 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="C42">
+        <v>0.3642664336695507</v>
+      </c>
+      <c r="D42">
+        <v>-0.1222207946088028</v>
+      </c>
+      <c r="E42">
+        <v>-0.3013158271714958</v>
+      </c>
+      <c r="F42">
+        <v>-0.2990494849001291</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -1242,6 +1503,18 @@
       <c r="B43" t="s">
         <v>46</v>
       </c>
+      <c r="C43">
+        <v>0.2942276129869336</v>
+      </c>
+      <c r="D43">
+        <v>-0.07820048649315529</v>
+      </c>
+      <c r="E43">
+        <v>-0.2331993883522948</v>
+      </c>
+      <c r="F43">
+        <v>-0.2995977252563159</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -1250,6 +1523,18 @@
       <c r="B44" t="s">
         <v>47</v>
       </c>
+      <c r="C44">
+        <v>0.113188970332297</v>
+      </c>
+      <c r="D44">
+        <v>-0.1900798657975694</v>
+      </c>
+      <c r="E44">
+        <v>-0.258035101668307</v>
+      </c>
+      <c r="F44">
+        <v>-0.2973059011036909</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -1258,6 +1543,18 @@
       <c r="B45" t="s">
         <v>48</v>
       </c>
+      <c r="C45">
+        <v>0.2398127258323962</v>
+      </c>
+      <c r="D45">
+        <v>-0.1902284093849973</v>
+      </c>
+      <c r="E45">
+        <v>-0.355195724916286</v>
+      </c>
+      <c r="F45">
+        <v>-0.346233216284843</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -1266,6 +1563,18 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
+      <c r="C46">
+        <v>-0.02234133306693918</v>
+      </c>
+      <c r="D46">
+        <v>-0.3406394634029332</v>
+      </c>
+      <c r="E46">
+        <v>-0.4700462100546337</v>
+      </c>
+      <c r="F46">
+        <v>-0.4630511417057485</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -1274,6 +1583,18 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
+      <c r="C47">
+        <v>0.25920181541493</v>
+      </c>
+      <c r="D47">
+        <v>-0.1443880557835294</v>
+      </c>
+      <c r="E47">
+        <v>-0.2760954837961504</v>
+      </c>
+      <c r="F47">
+        <v>-0.2762234351873427</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -1282,485 +1603,1134 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>-0.165275721425311</v>
+      </c>
+      <c r="D48">
+        <v>-0.4841402331375242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>-0.1172359834176049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0.1039777923594547</v>
+      </c>
+      <c r="D50">
+        <v>-0.2171721454383498</v>
+      </c>
+      <c r="E50">
+        <v>-0.3868581324653936</v>
+      </c>
+      <c r="F50">
+        <v>-0.447336908718638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>-0.1633320411817097</v>
+      </c>
+      <c r="D51">
+        <v>-0.4527000888063294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0.1461695970690364</v>
+      </c>
+      <c r="D52">
+        <v>-0.2711671612039723</v>
+      </c>
+      <c r="E52">
+        <v>-0.3974360869617695</v>
+      </c>
+      <c r="F52">
+        <v>-0.3564286141916946</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0.1834215719829009</v>
+      </c>
+      <c r="D53">
+        <v>-0.1585667591955211</v>
+      </c>
+      <c r="E53">
+        <v>-0.3081862024038176</v>
+      </c>
+      <c r="F53">
+        <v>-0.3278619084961235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0.1987559217765283</v>
+      </c>
+      <c r="D54">
+        <v>-0.2019126483703062</v>
+      </c>
+      <c r="E54">
+        <v>-0.3414871567463291</v>
+      </c>
+      <c r="F54">
+        <v>-0.3110341671480891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0.1457213069587198</v>
+      </c>
+      <c r="D55">
+        <v>-0.2653153703295394</v>
+      </c>
+      <c r="E55">
+        <v>-0.4063646383355016</v>
+      </c>
+      <c r="F55">
+        <v>-0.3937602961068882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>-0.1473218442223637</v>
+      </c>
+      <c r="D56">
+        <v>-0.4604041382291501</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0.1063370163864059</v>
+      </c>
+      <c r="D57">
+        <v>-0.2900929179798989</v>
+      </c>
+      <c r="E57">
+        <v>-0.4348322939554416</v>
+      </c>
+      <c r="F57">
+        <v>-0.4509764387707414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>-0.1127771965170069</v>
+      </c>
+      <c r="D58">
+        <v>-0.4209424663558364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0.06106175787726563</v>
+      </c>
+      <c r="D59">
+        <v>-0.2643283819119495</v>
+      </c>
+      <c r="E59">
+        <v>-0.4225873932583358</v>
+      </c>
+      <c r="F59">
+        <v>-0.4866660698242811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0.1664727011191663</v>
+      </c>
+      <c r="D60">
+        <v>-0.2372907083280081</v>
+      </c>
+      <c r="E60">
+        <v>-0.394404743255425</v>
+      </c>
+      <c r="F60">
+        <v>-0.3569209262061095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0.1805392805693344</v>
+      </c>
+      <c r="D61">
+        <v>-0.202308525261539</v>
+      </c>
+      <c r="E61">
+        <v>-0.349293483428356</v>
+      </c>
+      <c r="F61">
+        <v>-0.3487393722691152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0.2285655080463278</v>
+      </c>
+      <c r="D62">
+        <v>-0.1403373619418581</v>
+      </c>
+      <c r="E62">
+        <v>-0.2837892203746051</v>
+      </c>
+      <c r="F62">
+        <v>-0.302249229625605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>-0.1675648698841862</v>
+      </c>
+      <c r="D63">
+        <v>-0.3436471369362557</v>
+      </c>
+      <c r="E63">
+        <v>-0.3899877688552689</v>
+      </c>
+      <c r="F63">
+        <v>-0.4949199784397258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>-0.04100944269964991</v>
+      </c>
+      <c r="D64">
+        <v>0.02003669359216118</v>
+      </c>
+      <c r="E64">
+        <v>-0.05313489012753211</v>
+      </c>
+      <c r="F64">
+        <v>-0.1546334965324861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0.1737566660745712</v>
+      </c>
+      <c r="D65">
+        <v>-0.1276716344056464</v>
+      </c>
+      <c r="E65">
+        <v>-0.2676966441113499</v>
+      </c>
+      <c r="F65">
+        <v>-0.348229729469666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0.12624082059556</v>
+      </c>
+      <c r="D66">
+        <v>0.06479592043057215</v>
+      </c>
+      <c r="E66">
+        <v>0.07777218033249865</v>
+      </c>
+      <c r="F66">
+        <v>0.01054579867120006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0.04464469300502516</v>
+      </c>
+      <c r="D67">
+        <v>-0.2058367084130668</v>
+      </c>
+      <c r="E67">
+        <v>-0.3088027134960703</v>
+      </c>
+      <c r="F67">
+        <v>-0.3024030238165139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0.2191482774061797</v>
+      </c>
+      <c r="D68">
+        <v>-0.2066266378957825</v>
+      </c>
+      <c r="E68">
+        <v>-0.3570221981520678</v>
+      </c>
+      <c r="F68">
+        <v>-0.3206668000356294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0.1353301135018905</v>
+      </c>
+      <c r="D69">
+        <v>-0.267938454449351</v>
+      </c>
+      <c r="E69">
+        <v>-0.4096198727169378</v>
+      </c>
+      <c r="F69">
+        <v>-0.3913061837986361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>-0.1115616230765959</v>
+      </c>
+      <c r="D70">
+        <v>-0.4974305572366652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0.1760346737400713</v>
+      </c>
+      <c r="D71">
+        <v>-0.2474741056306868</v>
+      </c>
+      <c r="E71">
+        <v>-0.3669475436543829</v>
+      </c>
+      <c r="F71">
+        <v>-0.3201394131283578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0.03918401008169343</v>
+      </c>
+      <c r="D72">
+        <v>-0.3290568586251736</v>
+      </c>
+      <c r="E72">
+        <v>-0.4847978189489671</v>
+      </c>
+      <c r="F72">
+        <v>-0.4900214992586957</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0.222467206037415</v>
+      </c>
+      <c r="D73">
+        <v>-0.1894771503002348</v>
+      </c>
+      <c r="E73">
+        <v>-0.3266633278814239</v>
+      </c>
+      <c r="F73">
+        <v>-0.3152243328346282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>-0.1997232600103218</v>
+      </c>
+      <c r="D74">
+        <v>-0.4696970739402552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0.4607927628585385</v>
+      </c>
+      <c r="D75">
+        <v>-0.07560431024828999</v>
+      </c>
+      <c r="E75">
+        <v>-0.2435425607837639</v>
+      </c>
+      <c r="F75">
+        <v>-0.2428940072569147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0.08108738825993013</v>
+      </c>
+      <c r="D76">
+        <v>-0.02440768388588842</v>
+      </c>
+      <c r="E76">
+        <v>-0.1394470728987584</v>
+      </c>
+      <c r="F76">
+        <v>-0.3090826529074999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0.3290624709224979</v>
+      </c>
+      <c r="D77">
+        <v>0.2613916701298567</v>
+      </c>
+      <c r="E77">
+        <v>0.1457717578550292</v>
+      </c>
+      <c r="F77">
+        <v>-0.01610852542422308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0.1355825574548378</v>
+      </c>
+      <c r="D78">
+        <v>-0.2852407344176068</v>
+      </c>
+      <c r="E78">
+        <v>-0.4456955312175102</v>
+      </c>
+      <c r="F78">
+        <v>-0.3900268876204285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>-0.09362133105247245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0.1279654841547153</v>
+      </c>
+      <c r="D80">
+        <v>-0.2480483928632434</v>
+      </c>
+      <c r="E80">
+        <v>-0.4047806061189815</v>
+      </c>
+      <c r="F80">
+        <v>-0.3829073876715528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0.0514567024658474</v>
+      </c>
+      <c r="D81">
+        <v>-0.2738780870320959</v>
+      </c>
+      <c r="E81">
+        <v>-0.4128839956331422</v>
+      </c>
+      <c r="F81">
+        <v>-0.4326769974438816</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>-0.0251113300734407</v>
+      </c>
+      <c r="D82">
+        <v>-0.4527204150216638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>-0.2196105405382053</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0.09794521300913929</v>
+      </c>
+      <c r="D84">
+        <v>-0.335875778022407</v>
+      </c>
+      <c r="E84">
+        <v>-0.4896742905774131</v>
+      </c>
+      <c r="F84">
+        <v>-0.4374052683306955</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0.3123642321191609</v>
+      </c>
+      <c r="D85">
+        <v>-0.05201802884013119</v>
+      </c>
+      <c r="E85">
+        <v>-0.1971241775754772</v>
+      </c>
+      <c r="F85">
+        <v>-0.2320593263394746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>-0.0251113300734407</v>
+      </c>
+      <c r="D86">
+        <v>-0.4527204150216638</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>0.1553435727140035</v>
+      </c>
+      <c r="D87">
+        <v>-0.2174360841455056</v>
+      </c>
+      <c r="E87">
+        <v>-0.2809510127722561</v>
+      </c>
+      <c r="F87">
+        <v>-0.1850086777569641</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>-0.06763535816786817</v>
+      </c>
+      <c r="D88">
+        <v>-0.4099960202986983</v>
+      </c>
+      <c r="F88">
+        <v>-0.499460151627911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>-0.233522723742919</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>-0.259677319784374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>-0.1033312415025163</v>
+      </c>
+      <c r="D91">
+        <v>-0.3899093991970362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>-0.1592590691176413</v>
+      </c>
+      <c r="D92">
+        <v>-0.4926682309849512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>0.003264685892356452</v>
+      </c>
+      <c r="D93">
+        <v>-0.3600582893086194</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>-0.1977127159248866</v>
+      </c>
+      <c r="D94">
+        <v>-0.4567996311601647</v>
+      </c>
+      <c r="E94">
+        <v>-0.4945176092092051</v>
+      </c>
+      <c r="F94">
+        <v>-0.4641222260494421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>-0.1803374367041547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>-0.2873812305656467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="D97">
+        <v>0.0237575249141337</v>
+      </c>
+      <c r="E97">
+        <v>-0.1645806536847218</v>
+      </c>
+      <c r="F97">
+        <v>-0.09572639865857867</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="D98">
+        <v>0.1614083529592837</v>
+      </c>
+      <c r="E98">
+        <v>0.01738522504458168</v>
+      </c>
+      <c r="F98">
+        <v>0.1334703240259712</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="D99">
+        <v>0.3197688378346099</v>
+      </c>
+      <c r="E99">
+        <v>0.1393747747038572</v>
+      </c>
+      <c r="F99">
+        <v>0.2034599008880338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="D100">
+        <v>0.3677046493990795</v>
+      </c>
+      <c r="E100">
+        <v>0.2584553694352612</v>
+      </c>
+      <c r="F100">
+        <v>0.3719193596784938</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="D101">
+        <v>0.3103986919050237</v>
+      </c>
+      <c r="E101">
+        <v>0.1596039206438077</v>
+      </c>
+      <c r="F101">
+        <v>0.2373162267991794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="D102">
+        <v>0.2319338379980301</v>
+      </c>
+      <c r="E102">
+        <v>0.08346860522744347</v>
+      </c>
+      <c r="F102">
+        <v>0.1023241716888676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="D103">
+        <v>0.3460770195692719</v>
+      </c>
+      <c r="E103">
+        <v>0.2084866280598115</v>
+      </c>
+      <c r="F103">
+        <v>0.08359246036752987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="D104">
+        <v>0.3953185454077007</v>
+      </c>
+      <c r="E104">
+        <v>0.2540365453292073</v>
+      </c>
+      <c r="F104">
+        <v>0.3114812219069489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="D105">
+        <v>0.2719645052641151</v>
+      </c>
+      <c r="E105">
+        <v>0.1127525454721183</v>
+      </c>
+      <c r="F105">
+        <v>-0.0549066684946027</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="D106">
+        <v>0.3908127011536879</v>
+      </c>
+      <c r="E106">
+        <v>0.203380576107462</v>
+      </c>
+      <c r="F106">
+        <v>0.09202238279475554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="E107">
+        <v>0.4742235517939847</v>
+      </c>
+      <c r="F107">
+        <v>0.4971892695283631</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>111</v>
+      </c>
+      <c r="E108">
+        <v>0.4912739113847704</v>
+      </c>
+      <c r="F108">
+        <v>0.3578108088272953</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109">
+        <v>0.4778639597817289</v>
+      </c>
+      <c r="F109">
+        <v>0.4234460563086555</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110">
+        <v>0.4398024268150803</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111">
+        <v>0.4939099812167898</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112">
+        <v>0.499629634256735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113">
+        <v>0.4633440403860553</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114">
+        <v>0.4757754571418562</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="F115">
+        <v>0.4946707185596261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="F116">
+        <v>0.4518121322170329</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/lowSpearman.xlsx
+++ b/Correlations/lowSpearman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>keyword</t>
   </si>
@@ -58,6 +58,9 @@
     <t>login caixa auxilio emergencial</t>
   </si>
   <si>
+    <t>reabertura comercio</t>
+  </si>
+  <si>
     <t>olfato</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>teste coronavírus</t>
   </si>
   <si>
+    <t>teste rapido de coronavírus</t>
+  </si>
+  <si>
     <t>termometro digital</t>
   </si>
   <si>
@@ -103,240 +109,234 @@
     <t>nariz entupido</t>
   </si>
   <si>
+    <t>azitromicina</t>
+  </si>
+  <si>
+    <t>casos novos coronavírus</t>
+  </si>
+  <si>
+    <t>seguro desemprego entrada</t>
+  </si>
+  <si>
+    <t>seguro desemprego emergencial</t>
+  </si>
+  <si>
+    <t>como dar entrada no seguro desemprego</t>
+  </si>
+  <si>
+    <t>auxilio desemprego</t>
+  </si>
+  <si>
+    <t>pico brasil</t>
+  </si>
+  <si>
+    <t>pico coronavírus</t>
+  </si>
+  <si>
+    <t>brasil coronavírus</t>
+  </si>
+  <si>
+    <t>coronavírus brasil pico</t>
+  </si>
+  <si>
+    <t>coronavírus pico brasil</t>
+  </si>
+  <si>
+    <t>pico pandemia</t>
+  </si>
+  <si>
+    <t>coronavírus no brasil</t>
+  </si>
+  <si>
+    <t>pico corona</t>
+  </si>
+  <si>
+    <t>brasil pico da pandemia</t>
+  </si>
+  <si>
+    <t>covid brasil</t>
+  </si>
+  <si>
+    <t>cesta básica</t>
+  </si>
+  <si>
+    <t>cesta básica cras</t>
+  </si>
+  <si>
+    <t>coronavírus grupo de risco</t>
+  </si>
+  <si>
+    <t>grupo de risco covid</t>
+  </si>
+  <si>
+    <t>corona grupo de risco</t>
+  </si>
+  <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
+    <t>leitos de uti</t>
+  </si>
+  <si>
+    <t>leitos uti brasil</t>
+  </si>
+  <si>
+    <t>fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara</t>
+  </si>
+  <si>
+    <t>máscara tecido</t>
+  </si>
+  <si>
+    <t>como fazer máscara</t>
+  </si>
+  <si>
+    <t>máscara n95</t>
+  </si>
+  <si>
+    <t>máscara de tecido como fazer</t>
+  </si>
+  <si>
+    <t>máscara descartável</t>
+  </si>
+  <si>
+    <t>máscara proteção</t>
+  </si>
+  <si>
+    <t>máscaras</t>
+  </si>
+  <si>
+    <t>máscara de tecido</t>
+  </si>
+  <si>
+    <t>coronavírus vacina</t>
+  </si>
+  <si>
+    <t>vacina corona</t>
+  </si>
+  <si>
+    <t>vacina china</t>
+  </si>
+  <si>
+    <t>covid 19</t>
+  </si>
+  <si>
+    <t>pcr coronavírus</t>
+  </si>
+  <si>
+    <t>teste rápido coronavírus</t>
+  </si>
+  <si>
+    <t>isolamento social</t>
+  </si>
+  <si>
+    <t>quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus quarentena</t>
+  </si>
+  <si>
+    <t>quarentena dia</t>
+  </si>
+  <si>
+    <t>quarentena brasil</t>
+  </si>
+  <si>
+    <t>fim quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus idosos</t>
+  </si>
+  <si>
+    <t>como funciona lockdown</t>
+  </si>
+  <si>
+    <t>lockdown brasil</t>
+  </si>
+  <si>
+    <t>lockdown covid</t>
+  </si>
+  <si>
+    <t>brasil coronavírus mortes</t>
+  </si>
+  <si>
+    <t>mortes corona</t>
+  </si>
+  <si>
+    <t>mortes por coronavírus</t>
+  </si>
+  <si>
+    <t>decreto quarentena</t>
+  </si>
+  <si>
+    <t>coronavírus oms</t>
+  </si>
+  <si>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>covid 19 oms</t>
+  </si>
+  <si>
+    <t>cloroquina</t>
+  </si>
+  <si>
+    <t>oms coronavírus</t>
+  </si>
+  <si>
+    <t>máscara oms</t>
+  </si>
+  <si>
+    <t>oms brasil coronavírus</t>
+  </si>
+  <si>
+    <t>álcool gel</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
+  </si>
+  <si>
+    <t>coronavírus imunidade</t>
+  </si>
+  <si>
+    <t>respirador mecanico</t>
+  </si>
+  <si>
+    <t>respirador</t>
+  </si>
+  <si>
+    <t>respirador hospitalar</t>
+  </si>
+  <si>
+    <t>medicamento coronavírus</t>
+  </si>
+  <si>
+    <t>medicamento corona</t>
+  </si>
+  <si>
+    <t>reabertura shopping</t>
+  </si>
+  <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>reabertura escolas</t>
+  </si>
+  <si>
+    <t>plano de reabertura</t>
+  </si>
+  <si>
+    <t>oximetro</t>
+  </si>
+  <si>
     <t>oximetro de dedo</t>
   </si>
   <si>
     <t>ivermectina coronavírus</t>
   </si>
   <si>
-    <t>azitromicina</t>
-  </si>
-  <si>
-    <t>casos novos coronavírus</t>
-  </si>
-  <si>
-    <t>seguro desemprego entrada</t>
-  </si>
-  <si>
-    <t>seguro desemprego emergencial</t>
-  </si>
-  <si>
-    <t>como dar entrada no seguro desemprego</t>
-  </si>
-  <si>
-    <t>auxilio desemprego</t>
-  </si>
-  <si>
-    <t>pico brasil</t>
-  </si>
-  <si>
-    <t>pico coronavírus</t>
-  </si>
-  <si>
-    <t>brasil coronavírus</t>
-  </si>
-  <si>
-    <t>coronavírus brasil pico</t>
-  </si>
-  <si>
-    <t>coronavírus pico brasil</t>
-  </si>
-  <si>
-    <t>pico pandemia</t>
-  </si>
-  <si>
-    <t>coronavírus no brasil</t>
-  </si>
-  <si>
-    <t>pico corona</t>
-  </si>
-  <si>
-    <t>brasil pico da pandemia</t>
-  </si>
-  <si>
-    <t>covid brasil</t>
-  </si>
-  <si>
-    <t>cesta básica</t>
-  </si>
-  <si>
-    <t>cesta básica cras</t>
-  </si>
-  <si>
-    <t>coronavírus grupo de risco</t>
-  </si>
-  <si>
-    <t>grupo de risco covid</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>ministerio da saude</t>
-  </si>
-  <si>
-    <t>leitos de uti</t>
-  </si>
-  <si>
-    <t>leitos uti brasil</t>
-  </si>
-  <si>
-    <t>fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara</t>
-  </si>
-  <si>
-    <t>máscara tecido</t>
-  </si>
-  <si>
-    <t>como fazer máscara</t>
-  </si>
-  <si>
-    <t>máscara n95</t>
-  </si>
-  <si>
-    <t>máscara de tecido como fazer</t>
-  </si>
-  <si>
-    <t>máscara descartável</t>
-  </si>
-  <si>
-    <t>máscara proteção</t>
-  </si>
-  <si>
-    <t>máscaras</t>
-  </si>
-  <si>
-    <t>máscara de tecido</t>
-  </si>
-  <si>
-    <t>coronavírus vacina</t>
-  </si>
-  <si>
-    <t>vacina corona</t>
-  </si>
-  <si>
-    <t>vacina china</t>
-  </si>
-  <si>
-    <t>covid 19</t>
-  </si>
-  <si>
-    <t>pcr coronavírus</t>
-  </si>
-  <si>
-    <t>teste rápido coronavírus</t>
-  </si>
-  <si>
-    <t>isolamento social</t>
-  </si>
-  <si>
-    <t>quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus quarentena</t>
-  </si>
-  <si>
-    <t>quarentena dia</t>
-  </si>
-  <si>
-    <t>quarentena brasil</t>
-  </si>
-  <si>
-    <t>fim quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus idosos</t>
-  </si>
-  <si>
-    <t>como funciona lockdown</t>
-  </si>
-  <si>
-    <t>lockdown brasil</t>
-  </si>
-  <si>
-    <t>lockdown covid</t>
-  </si>
-  <si>
-    <t>brasil coronavírus mortes</t>
-  </si>
-  <si>
-    <t>mortes corona</t>
-  </si>
-  <si>
-    <t>mortes por coronavírus</t>
-  </si>
-  <si>
-    <t>decreto quarentena</t>
-  </si>
-  <si>
-    <t>coronavírus oms</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>covid 19 oms</t>
-  </si>
-  <si>
-    <t>cloroquina</t>
-  </si>
-  <si>
-    <t>oms coronavírus</t>
-  </si>
-  <si>
-    <t>máscara oms</t>
-  </si>
-  <si>
-    <t>oms brasil coronavírus</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>coronavírus imunidade</t>
-  </si>
-  <si>
-    <t>respirador mecanico</t>
-  </si>
-  <si>
-    <t>respirador</t>
-  </si>
-  <si>
-    <t>respirador hospitalar</t>
-  </si>
-  <si>
-    <t>medicamento coronavírus</t>
-  </si>
-  <si>
-    <t>medicamento corona</t>
-  </si>
-  <si>
-    <t>reabertura comercio</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>teste rapido de coronavírus</t>
-  </si>
-  <si>
-    <t>oximetro</t>
-  </si>
-  <si>
     <t>para que serve ivermectina</t>
   </si>
   <si>
@@ -349,28 +349,31 @@
     <t>taxa de ocupação de leitos</t>
   </si>
   <si>
+    <t>exame igg</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
     <t>teste rápido covid</t>
   </si>
   <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
+    <t>covid igg</t>
+  </si>
+  <si>
+    <t>covid igm igg</t>
+  </si>
+  <si>
     <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>covid igg</t>
-  </si>
-  <si>
-    <t>covid igm igg</t>
-  </si>
-  <si>
-    <t>exame igg</t>
   </si>
   <si>
     <t>estou com covid</t>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,16 +765,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.4197313527511587</v>
+        <v>0.4465212036348084</v>
       </c>
       <c r="D2">
-        <v>0.4454786450498039</v>
+        <v>0.4588696773886109</v>
       </c>
       <c r="E2">
-        <v>0.3160344483121423</v>
+        <v>0.3385755265879862</v>
       </c>
       <c r="F2">
-        <v>0.1010585807444151</v>
+        <v>0.1241177328784531</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -782,16 +785,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.2585970319286385</v>
+        <v>0.2500265382476195</v>
       </c>
       <c r="D3">
-        <v>-0.08611633117926655</v>
+        <v>-0.09649776886236396</v>
       </c>
       <c r="E3">
-        <v>-0.2271124960593029</v>
+        <v>-0.2319414067827107</v>
       </c>
       <c r="F3">
-        <v>-0.2294578574120354</v>
+        <v>-0.2307963857771313</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -802,16 +805,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.1390539067250994</v>
+        <v>0.1674670192933527</v>
       </c>
       <c r="D4">
-        <v>-0.01249825914055076</v>
+        <v>-0.01058874878394177</v>
       </c>
       <c r="E4">
-        <v>-0.1283764733801126</v>
+        <v>-0.1447885935783698</v>
       </c>
       <c r="F4">
-        <v>-0.3038271726493589</v>
+        <v>-0.2995019888557817</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -822,13 +825,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>-0.4002968236136627</v>
+        <v>-0.4514721361017434</v>
       </c>
       <c r="D5">
-        <v>-0.3456140432280341</v>
+        <v>-0.3770912462665685</v>
       </c>
       <c r="E5">
-        <v>-0.4420726651468247</v>
+        <v>-0.4176169808691246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -839,16 +842,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.1796168468281138</v>
+        <v>0.2518887342772691</v>
       </c>
       <c r="D6">
-        <v>-0.1214925399081641</v>
+        <v>-0.07651594752347551</v>
       </c>
       <c r="E6">
-        <v>-0.3103428386752006</v>
+        <v>-0.2724388428970761</v>
       </c>
       <c r="F6">
-        <v>-0.3933089804893422</v>
+        <v>-0.3434950961001172</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -859,16 +862,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.4404329806050701</v>
+        <v>0.4092384005278275</v>
       </c>
       <c r="D7">
-        <v>0.2373885397516904</v>
+        <v>0.2463686754972305</v>
       </c>
       <c r="E7">
-        <v>0.1035747113762435</v>
+        <v>0.1184994700849873</v>
       </c>
       <c r="F7">
-        <v>-0.01432503127483249</v>
+        <v>-0.01453826954998478</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -879,16 +882,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.4396883374333795</v>
+        <v>0.3673701867518316</v>
       </c>
       <c r="D8">
-        <v>0.1920677159094122</v>
+        <v>0.152614235233906</v>
       </c>
       <c r="E8">
-        <v>0.0332463726861167</v>
+        <v>0.04847419055130624</v>
       </c>
       <c r="F8">
-        <v>-0.08327452882570521</v>
+        <v>-0.05949648971018043</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -899,16 +902,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.4400578120414418</v>
+        <v>0.4592107686457819</v>
       </c>
       <c r="D9">
-        <v>0.2668029545830032</v>
+        <v>0.2208273815907319</v>
       </c>
       <c r="E9">
-        <v>0.1597701995404885</v>
+        <v>0.1161659257794012</v>
       </c>
       <c r="F9">
-        <v>0.05615917598886166</v>
+        <v>0.00896512779305599</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -919,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.4094410341432879</v>
+        <v>0.4901207558610921</v>
       </c>
       <c r="D10">
-        <v>0.03127184239075382</v>
+        <v>0.1136845982316086</v>
       </c>
       <c r="E10">
-        <v>-0.09951777506066088</v>
+        <v>-0.02224033320506443</v>
       </c>
       <c r="F10">
-        <v>-0.02302896283943475</v>
+        <v>0.05931036648364585</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -939,16 +942,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.4062753516980959</v>
+        <v>0.4948878344274308</v>
       </c>
       <c r="D11">
-        <v>0.2638796067098659</v>
+        <v>-0.03877117952848871</v>
       </c>
       <c r="E11">
-        <v>0.15647914113798</v>
+        <v>-0.2380303411330305</v>
       </c>
       <c r="F11">
-        <v>0.001622918628678979</v>
+        <v>-0.1924070011142515</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -959,16 +962,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.4558372755684627</v>
+        <v>0.3831212383693544</v>
       </c>
       <c r="D12">
-        <v>0.2627886847262772</v>
+        <v>0.253004841604736</v>
       </c>
       <c r="E12">
-        <v>0.1190241295740509</v>
+        <v>0.1397603157434945</v>
       </c>
       <c r="F12">
-        <v>-0.02378264085954462</v>
+        <v>-0.026176537014165</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -979,16 +982,16 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.167812967528159</v>
+        <v>0.410928974261802</v>
       </c>
       <c r="D13">
-        <v>-0.08921962239293382</v>
+        <v>0.2365963024628133</v>
       </c>
       <c r="E13">
-        <v>-0.2520807642596114</v>
+        <v>0.08981952052704957</v>
       </c>
       <c r="F13">
-        <v>-0.3665113661539111</v>
+        <v>-0.04664127015464372</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -999,7 +1002,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.4954866452022257</v>
+        <v>0.1667373096948964</v>
+      </c>
+      <c r="D14">
+        <v>-0.0927050117951142</v>
+      </c>
+      <c r="E14">
+        <v>-0.2599218402598076</v>
+      </c>
+      <c r="F14">
+        <v>-0.3737598532397789</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1010,10 +1022,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>-0.004940540875501637</v>
-      </c>
-      <c r="D15">
-        <v>-0.3449422834817572</v>
+        <v>0.455497200192207</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1024,16 +1033,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.3020254320587474</v>
+        <v>0.03160160128315059</v>
       </c>
       <c r="D16">
-        <v>-0.2212659462290934</v>
+        <v>-0.3205558765026753</v>
       </c>
       <c r="E16">
-        <v>-0.4175695191886904</v>
-      </c>
-      <c r="F16">
-        <v>-0.3691607121186567</v>
+        <v>-0.4912894693481598</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1044,16 +1050,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.2418086812469647</v>
+        <v>0.2076541700788176</v>
       </c>
       <c r="D17">
-        <v>-0.2830342645556074</v>
+        <v>0.190568110997918</v>
       </c>
       <c r="E17">
-        <v>-0.4694246017151212</v>
+        <v>0.08068296603406171</v>
       </c>
       <c r="F17">
-        <v>-0.4236552318899647</v>
+        <v>0.05578561876360261</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1064,7 +1070,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>-0.2806250990287105</v>
+        <v>0.2690788973985005</v>
+      </c>
+      <c r="D18">
+        <v>-0.2342736830797544</v>
+      </c>
+      <c r="E18">
+        <v>-0.4170458286407472</v>
+      </c>
+      <c r="F18">
+        <v>-0.3962237577128751</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1075,16 +1090,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0.02851196400096977</v>
+        <v>0.2588766458248494</v>
       </c>
       <c r="D19">
-        <v>-0.2534666803574407</v>
+        <v>-0.2642693829766802</v>
       </c>
       <c r="E19">
-        <v>-0.3939386425395907</v>
+        <v>-0.443237961198154</v>
       </c>
       <c r="F19">
-        <v>-0.4832968863905549</v>
+        <v>-0.4040226080738664</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1095,16 +1110,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>0.05231579312663336</v>
-      </c>
-      <c r="D20">
-        <v>-0.2575889620840234</v>
-      </c>
-      <c r="E20">
-        <v>-0.3946212765007739</v>
-      </c>
-      <c r="F20">
-        <v>-0.4834141561102285</v>
+        <v>-0.295562108385919</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1115,16 +1121,16 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>0.273116735725978</v>
+        <v>0.03345097404152342</v>
       </c>
       <c r="D21">
-        <v>0.08817636273489717</v>
+        <v>-0.2696869237080127</v>
       </c>
       <c r="E21">
-        <v>-0.06783036145280735</v>
+        <v>-0.3932896482059187</v>
       </c>
       <c r="F21">
-        <v>-0.1386749751997503</v>
+        <v>-0.4415763601600577</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1135,10 +1141,16 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>-0.4146486810122969</v>
+        <v>0.05517730497610845</v>
       </c>
       <c r="D22">
-        <v>-0.4930453104029736</v>
+        <v>-0.2645597546348747</v>
+      </c>
+      <c r="E22">
+        <v>-0.3884226811724317</v>
+      </c>
+      <c r="F22">
+        <v>-0.4636350901935358</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1149,16 +1161,16 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>-0.1556911999890307</v>
+        <v>0.2225992453009209</v>
       </c>
       <c r="D23">
-        <v>0.1663904720080084</v>
+        <v>0.08847637685372936</v>
       </c>
       <c r="E23">
-        <v>0.2388729077485896</v>
+        <v>-0.02446779319373433</v>
       </c>
       <c r="F23">
-        <v>0.09219908224496999</v>
+        <v>-0.06077956931343304</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1169,10 +1181,10 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>-0.1894227535929994</v>
+        <v>-0.3802435070999968</v>
       </c>
       <c r="D24">
-        <v>-0.4916738666822577</v>
+        <v>-0.4791057016869694</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,16 +1195,16 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>0.1418495030843733</v>
+        <v>-0.1398928288795696</v>
       </c>
       <c r="D25">
-        <v>-0.04950985339250409</v>
+        <v>0.1839804232011977</v>
       </c>
       <c r="E25">
-        <v>-0.197023716614191</v>
+        <v>0.272134066231743</v>
       </c>
       <c r="F25">
-        <v>-0.2580383313091815</v>
+        <v>0.1446230116408362</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,16 +1215,10 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>0.4762445635825104</v>
+        <v>-0.1906069769632626</v>
       </c>
       <c r="D26">
-        <v>0.09665057593592541</v>
-      </c>
-      <c r="E26">
-        <v>-0.02370357530796672</v>
-      </c>
-      <c r="F26">
-        <v>-0.08278490722690431</v>
+        <v>-0.4953655296171783</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1223,16 +1229,16 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>0.4781375057890669</v>
+        <v>0.05744737301185491</v>
       </c>
       <c r="D27">
-        <v>0.1458832578228693</v>
+        <v>-0.04967721129499952</v>
       </c>
       <c r="E27">
-        <v>-0.003202428258635982</v>
+        <v>-0.1704891644201793</v>
       </c>
       <c r="F27">
-        <v>-0.06267829479488764</v>
+        <v>-0.2479695116348441</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1243,16 +1249,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>0.4162200654687641</v>
+        <v>0.4409504434820073</v>
       </c>
       <c r="D28">
-        <v>0.1883373589734123</v>
+        <v>0.1999295154163132</v>
       </c>
       <c r="E28">
-        <v>0.02668970510393794</v>
+        <v>0.02530931778109746</v>
       </c>
       <c r="F28">
-        <v>-0.1234341429268125</v>
+        <v>-0.1136002981433898</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,16 +1269,16 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>-0.2223539577616998</v>
+        <v>-0.1944362407668242</v>
       </c>
       <c r="D29">
-        <v>-0.3636958895110666</v>
+        <v>-0.2989063875583484</v>
       </c>
       <c r="E29">
-        <v>-0.4482619767228297</v>
+        <v>-0.3637720180003339</v>
       </c>
       <c r="F29">
-        <v>-0.4124921843497744</v>
+        <v>-0.4114336768324419</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,16 +1289,16 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>0.1321882966416743</v>
+        <v>0.1159319428033659</v>
       </c>
       <c r="D30">
-        <v>-0.2520346083402041</v>
+        <v>-0.3197915199209664</v>
       </c>
       <c r="E30">
-        <v>-0.4169961941539187</v>
+        <v>-0.4778333720593939</v>
       </c>
       <c r="F30">
-        <v>-0.4409541557822137</v>
+        <v>-0.4483503342666165</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,16 +1309,16 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>0.4657168201625583</v>
+        <v>0.4649949903092157</v>
       </c>
       <c r="D31">
-        <v>0.05882355048124699</v>
+        <v>0.0425997248421597</v>
       </c>
       <c r="E31">
-        <v>-0.07878683600551568</v>
+        <v>-0.0873889387010796</v>
       </c>
       <c r="F31">
-        <v>0.002894356007591722</v>
+        <v>-0.0252717775583783</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,16 +1329,16 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>0.2160618409158264</v>
+        <v>0.1219952692027626</v>
       </c>
       <c r="D32">
-        <v>-0.115809185746401</v>
+        <v>-0.2561680720770321</v>
       </c>
       <c r="E32">
-        <v>-0.2598745315933235</v>
+        <v>-0.4072079347151264</v>
       </c>
       <c r="F32">
-        <v>-0.3164619519391339</v>
+        <v>-0.423202049522352</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,16 +1349,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.3442340916100402</v>
+        <v>0.3546147367769395</v>
       </c>
       <c r="D33">
-        <v>-0.07385986721754235</v>
+        <v>-0.06690433622575372</v>
       </c>
       <c r="E33">
-        <v>-0.2100530125022019</v>
+        <v>-0.2102479333558328</v>
       </c>
       <c r="F33">
-        <v>-0.1437548556308732</v>
+        <v>-0.1584022291479145</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,13 +1369,16 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>0.1087058533188739</v>
+        <v>0.1432962712977833</v>
       </c>
       <c r="D34">
-        <v>-0.3568637114742176</v>
+        <v>-0.2898710103421259</v>
+      </c>
+      <c r="E34">
+        <v>-0.4547004157104033</v>
       </c>
       <c r="F34">
-        <v>-0.4880190562240558</v>
+        <v>-0.4230690386124334</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1380,13 +1389,16 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>0.0524792838192077</v>
+        <v>0.1062711842195881</v>
       </c>
       <c r="D35">
-        <v>-0.3499076353692326</v>
+        <v>-0.3253962651339499</v>
+      </c>
+      <c r="E35">
+        <v>-0.4723614638445066</v>
       </c>
       <c r="F35">
-        <v>-0.4728776022193335</v>
+        <v>-0.4453715378972765</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1397,10 +1409,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>-0.04153576551400572</v>
-      </c>
-      <c r="D36">
-        <v>-0.4968024431605709</v>
+        <v>-0.06670551892860958</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1411,10 +1420,16 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>0.0254951333132065</v>
+        <v>0.09519162960445456</v>
       </c>
       <c r="D37">
-        <v>-0.378949945370724</v>
+        <v>-0.3031139191647303</v>
+      </c>
+      <c r="E37">
+        <v>-0.4692142259551805</v>
+      </c>
+      <c r="F37">
+        <v>-0.4901878898295924</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1425,10 +1440,16 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>0.0254951333132065</v>
+        <v>0.09519162960445456</v>
       </c>
       <c r="D38">
-        <v>-0.378949945370724</v>
+        <v>-0.3031139191647303</v>
+      </c>
+      <c r="E38">
+        <v>-0.4692142259551805</v>
+      </c>
+      <c r="F38">
+        <v>-0.4901878898295924</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1439,16 +1460,16 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>0.3789277321483404</v>
+        <v>0.3924973574746883</v>
       </c>
       <c r="D39">
-        <v>-0.1269038194560016</v>
+        <v>-0.07333120262197897</v>
       </c>
       <c r="E39">
-        <v>-0.2923271720762802</v>
+        <v>-0.2439514117019974</v>
       </c>
       <c r="F39">
-        <v>-0.2258843700243513</v>
+        <v>-0.2334102299890951</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1459,7 +1480,7 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>-0.09416869755150642</v>
+        <v>-0.09297257649971635</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1470,10 +1491,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>0.008815252955647767</v>
+        <v>-0.009241562408591683</v>
       </c>
       <c r="D41">
-        <v>-0.3440330404038974</v>
+        <v>-0.4027750441262419</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1484,16 +1505,16 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>0.3642664336695507</v>
+        <v>0.3189658770772411</v>
       </c>
       <c r="D42">
-        <v>-0.1222207946088028</v>
+        <v>-0.1377651582301802</v>
       </c>
       <c r="E42">
-        <v>-0.3013158271714958</v>
+        <v>-0.3013583429399954</v>
       </c>
       <c r="F42">
-        <v>-0.2990494849001291</v>
+        <v>-0.337080447318756</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1504,16 +1525,16 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>0.2942276129869336</v>
+        <v>0.2968265427919397</v>
       </c>
       <c r="D43">
-        <v>-0.07820048649315529</v>
+        <v>-0.0696657845996748</v>
       </c>
       <c r="E43">
-        <v>-0.2331993883522948</v>
+        <v>-0.2324155033621649</v>
       </c>
       <c r="F43">
-        <v>-0.2995977252563159</v>
+        <v>-0.2991284246971383</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1524,16 +1545,16 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>0.113188970332297</v>
+        <v>0.1282042337536301</v>
       </c>
       <c r="D44">
-        <v>-0.1900798657975694</v>
+        <v>-0.1801516204656931</v>
       </c>
       <c r="E44">
-        <v>-0.258035101668307</v>
+        <v>-0.2599774678551692</v>
       </c>
       <c r="F44">
-        <v>-0.2973059011036909</v>
+        <v>-0.286026835025918</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1544,16 +1565,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.2398127258323962</v>
+        <v>0.1151506639709935</v>
       </c>
       <c r="D45">
-        <v>-0.1902284093849973</v>
+        <v>-0.2236058278625005</v>
       </c>
       <c r="E45">
-        <v>-0.355195724916286</v>
+        <v>-0.3669815471477628</v>
       </c>
       <c r="F45">
-        <v>-0.346233216284843</v>
+        <v>-0.3947567650553238</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1564,16 +1585,13 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>-0.02234133306693918</v>
+        <v>-0.03915986092109446</v>
       </c>
       <c r="D46">
-        <v>-0.3406394634029332</v>
+        <v>-0.3211224460172885</v>
       </c>
       <c r="E46">
-        <v>-0.4700462100546337</v>
-      </c>
-      <c r="F46">
-        <v>-0.4630511417057485</v>
+        <v>-0.4360071243604306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1584,16 +1602,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.25920181541493</v>
+        <v>0.2340538238879529</v>
       </c>
       <c r="D47">
-        <v>-0.1443880557835294</v>
+        <v>-0.1653446379616635</v>
       </c>
       <c r="E47">
-        <v>-0.2760954837961504</v>
+        <v>-0.3247779270249279</v>
       </c>
       <c r="F47">
-        <v>-0.2762234351873427</v>
+        <v>-0.2947777177160768</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1604,10 +1622,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>-0.165275721425311</v>
-      </c>
-      <c r="D48">
-        <v>-0.4841402331375242</v>
+        <v>-0.214752888018272</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1618,7 +1633,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>-0.1172359834176049</v>
+        <v>-0.1204846913918277</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1629,16 +1644,16 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>0.1039777923594547</v>
+        <v>0.1005859590282965</v>
       </c>
       <c r="D50">
-        <v>-0.2171721454383498</v>
+        <v>-0.2158940898988271</v>
       </c>
       <c r="E50">
-        <v>-0.3868581324653936</v>
+        <v>-0.3857151935862372</v>
       </c>
       <c r="F50">
-        <v>-0.447336908718638</v>
+        <v>-0.4400099687656778</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1649,10 +1664,16 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>-0.1633320411817097</v>
+        <v>-0.1911229353789936</v>
       </c>
       <c r="D51">
-        <v>-0.4527000888063294</v>
+        <v>-0.4121593181857697</v>
+      </c>
+      <c r="E51">
+        <v>-0.4753680399220661</v>
+      </c>
+      <c r="F51">
+        <v>-0.4894633849544028</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1663,16 +1684,16 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>0.1461695970690364</v>
+        <v>0.1500095016661203</v>
       </c>
       <c r="D52">
-        <v>-0.2711671612039723</v>
+        <v>-0.2470980213403568</v>
       </c>
       <c r="E52">
-        <v>-0.3974360869617695</v>
+        <v>-0.3788473639771863</v>
       </c>
       <c r="F52">
-        <v>-0.3564286141916946</v>
+        <v>-0.3546565050736754</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1683,16 +1704,16 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>0.1834215719829009</v>
+        <v>0.174971908573387</v>
       </c>
       <c r="D53">
-        <v>-0.1585667591955211</v>
+        <v>-0.1658434961729247</v>
       </c>
       <c r="E53">
-        <v>-0.3081862024038176</v>
+        <v>-0.3115144627455689</v>
       </c>
       <c r="F53">
-        <v>-0.3278619084961235</v>
+        <v>-0.3314498081194742</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1703,16 +1724,16 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>0.1987559217765283</v>
+        <v>0.1756351678000279</v>
       </c>
       <c r="D54">
-        <v>-0.2019126483703062</v>
+        <v>-0.2323776623196144</v>
       </c>
       <c r="E54">
-        <v>-0.3414871567463291</v>
+        <v>-0.371265241427695</v>
       </c>
       <c r="F54">
-        <v>-0.3110341671480891</v>
+        <v>-0.3551436948065196</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1723,16 +1744,16 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>0.1457213069587198</v>
+        <v>0.1368805477060086</v>
       </c>
       <c r="D55">
-        <v>-0.2653153703295394</v>
+        <v>-0.3093700900067163</v>
       </c>
       <c r="E55">
-        <v>-0.4063646383355016</v>
+        <v>-0.4461056044464979</v>
       </c>
       <c r="F55">
-        <v>-0.3937602961068882</v>
+        <v>-0.3743466058118277</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1743,10 +1764,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>-0.1473218442223637</v>
+        <v>-0.1226709064544358</v>
       </c>
       <c r="D56">
-        <v>-0.4604041382291501</v>
+        <v>-0.4002826852309909</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1757,16 +1778,16 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>0.1063370163864059</v>
+        <v>0.1639424969292013</v>
       </c>
       <c r="D57">
-        <v>-0.2900929179798989</v>
+        <v>-0.2263546530172203</v>
       </c>
       <c r="E57">
-        <v>-0.4348322939554416</v>
+        <v>-0.3684024971475721</v>
       </c>
       <c r="F57">
-        <v>-0.4509764387707414</v>
+        <v>-0.3825296206934544</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1777,10 +1798,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>-0.1127771965170069</v>
+        <v>-0.09156190805994278</v>
       </c>
       <c r="D58">
-        <v>-0.4209424663558364</v>
+        <v>-0.38761635372152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1791,16 +1812,16 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>0.06106175787726563</v>
+        <v>0.06313266327772271</v>
       </c>
       <c r="D59">
-        <v>-0.2643283819119495</v>
+        <v>-0.2828226765183119</v>
       </c>
       <c r="E59">
-        <v>-0.4225873932583358</v>
+        <v>-0.4436804833729953</v>
       </c>
       <c r="F59">
-        <v>-0.4866660698242811</v>
+        <v>-0.4770577450824597</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1811,16 +1832,16 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>0.1664727011191663</v>
+        <v>0.1853786939295163</v>
       </c>
       <c r="D60">
-        <v>-0.2372907083280081</v>
+        <v>-0.2046851116105229</v>
       </c>
       <c r="E60">
-        <v>-0.394404743255425</v>
+        <v>-0.3562535488989014</v>
       </c>
       <c r="F60">
-        <v>-0.3569209262061095</v>
+        <v>-0.3394654314977298</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1831,16 +1852,16 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>0.1805392805693344</v>
+        <v>0.1646167616602042</v>
       </c>
       <c r="D61">
-        <v>-0.202308525261539</v>
+        <v>-0.2385362366518063</v>
       </c>
       <c r="E61">
-        <v>-0.349293483428356</v>
+        <v>-0.3723571657491307</v>
       </c>
       <c r="F61">
-        <v>-0.3487393722691152</v>
+        <v>-0.3482641027793386</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1851,16 +1872,16 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>0.2285655080463278</v>
+        <v>0.2405788407332349</v>
       </c>
       <c r="D62">
-        <v>-0.1403373619418581</v>
+        <v>-0.162291973973948</v>
       </c>
       <c r="E62">
-        <v>-0.2837892203746051</v>
+        <v>-0.3126700334081683</v>
       </c>
       <c r="F62">
-        <v>-0.302249229625605</v>
+        <v>-0.3382888069039067</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1871,16 +1892,13 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>-0.1675648698841862</v>
+        <v>-0.1791500667612577</v>
       </c>
       <c r="D63">
-        <v>-0.3436471369362557</v>
+        <v>-0.3954611827446829</v>
       </c>
       <c r="E63">
-        <v>-0.3899877688552689</v>
-      </c>
-      <c r="F63">
-        <v>-0.4949199784397258</v>
+        <v>-0.4665049960617317</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1891,16 +1909,16 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>-0.04100944269964991</v>
+        <v>-0.04417596693250383</v>
       </c>
       <c r="D64">
-        <v>0.02003669359216118</v>
+        <v>0.01728381135980701</v>
       </c>
       <c r="E64">
-        <v>-0.05313489012753211</v>
+        <v>-0.009815843687237499</v>
       </c>
       <c r="F64">
-        <v>-0.1546334965324861</v>
+        <v>-0.1491776692747923</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1911,16 +1929,16 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>0.1737566660745712</v>
+        <v>0.1790613397348572</v>
       </c>
       <c r="D65">
-        <v>-0.1276716344056464</v>
+        <v>-0.1234707410726014</v>
       </c>
       <c r="E65">
-        <v>-0.2676966441113499</v>
+        <v>-0.2719131664609764</v>
       </c>
       <c r="F65">
-        <v>-0.348229729469666</v>
+        <v>-0.3480132822706463</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1931,16 +1949,16 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>0.12624082059556</v>
+        <v>0.0630239897473264</v>
       </c>
       <c r="D66">
-        <v>0.06479592043057215</v>
+        <v>-0.136425924937925</v>
       </c>
       <c r="E66">
-        <v>0.07777218033249865</v>
+        <v>-0.1966710243382558</v>
       </c>
       <c r="F66">
-        <v>0.01054579867120006</v>
+        <v>-0.1465948124295431</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1951,16 +1969,16 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>0.04464469300502516</v>
+        <v>-0.07621488953213129</v>
       </c>
       <c r="D67">
-        <v>-0.2058367084130668</v>
+        <v>-0.2030415539358986</v>
       </c>
       <c r="E67">
-        <v>-0.3088027134960703</v>
+        <v>-0.2846314277988465</v>
       </c>
       <c r="F67">
-        <v>-0.3024030238165139</v>
+        <v>-0.3182820740120461</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1971,16 +1989,16 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>0.2191482774061797</v>
+        <v>0.2324089470097911</v>
       </c>
       <c r="D68">
-        <v>-0.2066266378957825</v>
+        <v>-0.2074661380675713</v>
       </c>
       <c r="E68">
-        <v>-0.3570221981520678</v>
+        <v>-0.3521403092691812</v>
       </c>
       <c r="F68">
-        <v>-0.3206668000356294</v>
+        <v>-0.3220680496194751</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1991,16 +2009,16 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>0.1353301135018905</v>
+        <v>0.137171388658384</v>
       </c>
       <c r="D69">
-        <v>-0.267938454449351</v>
+        <v>-0.2678773120169616</v>
       </c>
       <c r="E69">
-        <v>-0.4096198727169378</v>
+        <v>-0.4071624366418962</v>
       </c>
       <c r="F69">
-        <v>-0.3913061837986361</v>
+        <v>-0.3824842284513855</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2011,10 +2029,10 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>-0.1115616230765959</v>
+        <v>-0.01805776014997075</v>
       </c>
       <c r="D70">
-        <v>-0.4974305572366652</v>
+        <v>-0.411021655287092</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2025,16 +2043,16 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>0.1760346737400713</v>
+        <v>0.1817992622975366</v>
       </c>
       <c r="D71">
-        <v>-0.2474741056306868</v>
+        <v>-0.2473081882217748</v>
       </c>
       <c r="E71">
-        <v>-0.3669475436543829</v>
+        <v>-0.3687154625357825</v>
       </c>
       <c r="F71">
-        <v>-0.3201394131283578</v>
+        <v>-0.3249224850567759</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2045,16 +2063,13 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>0.03918401008169343</v>
+        <v>0.03836385669618174</v>
       </c>
       <c r="D72">
-        <v>-0.3290568586251736</v>
-      </c>
-      <c r="E72">
-        <v>-0.4847978189489671</v>
+        <v>-0.3725440522331902</v>
       </c>
       <c r="F72">
-        <v>-0.4900214992586957</v>
+        <v>-0.4751576390866276</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2065,16 +2080,16 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>0.222467206037415</v>
+        <v>0.2105971379451672</v>
       </c>
       <c r="D73">
-        <v>-0.1894771503002348</v>
+        <v>-0.2338220408253306</v>
       </c>
       <c r="E73">
-        <v>-0.3266633278814239</v>
+        <v>-0.3453569724125894</v>
       </c>
       <c r="F73">
-        <v>-0.3152243328346282</v>
+        <v>-0.3152782541748429</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2085,10 +2100,16 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>-0.1997232600103218</v>
+        <v>-0.1334896265513999</v>
       </c>
       <c r="D74">
-        <v>-0.4696970739402552</v>
+        <v>-0.3582520142428252</v>
+      </c>
+      <c r="E74">
+        <v>-0.4430346025394418</v>
+      </c>
+      <c r="F74">
+        <v>-0.4562476602138545</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2099,16 +2120,16 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>0.4607927628585385</v>
+        <v>0.4653149836783834</v>
       </c>
       <c r="D75">
-        <v>-0.07560431024828999</v>
+        <v>-0.05205399034255098</v>
       </c>
       <c r="E75">
-        <v>-0.2435425607837639</v>
+        <v>-0.227193555803263</v>
       </c>
       <c r="F75">
-        <v>-0.2428940072569147</v>
+        <v>-0.2279258386895596</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2119,16 +2140,16 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>0.08108738825993013</v>
+        <v>0.1151403644223696</v>
       </c>
       <c r="D76">
-        <v>-0.02440768388588842</v>
+        <v>-0.02007075157204278</v>
       </c>
       <c r="E76">
-        <v>-0.1394470728987584</v>
+        <v>-0.1374612232845455</v>
       </c>
       <c r="F76">
-        <v>-0.3090826529074999</v>
+        <v>-0.2993462780828045</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2139,16 +2160,16 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>0.3290624709224979</v>
+        <v>0.3596007965811548</v>
       </c>
       <c r="D77">
-        <v>0.2613916701298567</v>
+        <v>0.2382416426011481</v>
       </c>
       <c r="E77">
-        <v>0.1457717578550292</v>
+        <v>0.1300636313884682</v>
       </c>
       <c r="F77">
-        <v>-0.01610852542422308</v>
+        <v>-0.02987710493724036</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2159,16 +2180,16 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>0.1355825574548378</v>
+        <v>0.1511269801602036</v>
       </c>
       <c r="D78">
-        <v>-0.2852407344176068</v>
+        <v>-0.2228048628491351</v>
       </c>
       <c r="E78">
-        <v>-0.4456955312175102</v>
+        <v>-0.3786614038891039</v>
       </c>
       <c r="F78">
-        <v>-0.3900268876204285</v>
+        <v>-0.3792651408504043</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2179,7 +2200,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>-0.09362133105247245</v>
+        <v>-0.1091160574919993</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2190,16 +2211,16 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>0.1279654841547153</v>
+        <v>0.1173065562438154</v>
       </c>
       <c r="D80">
-        <v>-0.2480483928632434</v>
+        <v>-0.2923771737894998</v>
       </c>
       <c r="E80">
-        <v>-0.4047806061189815</v>
+        <v>-0.4197858864773367</v>
       </c>
       <c r="F80">
-        <v>-0.3829073876715528</v>
+        <v>-0.3810337744249691</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2210,16 +2231,16 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>0.0514567024658474</v>
+        <v>0.07695373404898258</v>
       </c>
       <c r="D81">
-        <v>-0.2738780870320959</v>
+        <v>-0.2344386771385303</v>
       </c>
       <c r="E81">
-        <v>-0.4128839956331422</v>
+        <v>-0.3560592087941031</v>
       </c>
       <c r="F81">
-        <v>-0.4326769974438816</v>
+        <v>-0.390048497494087</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2230,10 +2251,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>-0.0251113300734407</v>
-      </c>
-      <c r="D82">
-        <v>-0.4527204150216638</v>
+        <v>-0.08405320788237849</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2244,7 +2262,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>-0.2196105405382053</v>
+        <v>-0.2327304604218347</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2255,16 +2273,13 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.09794521300913929</v>
+        <v>0.05056147982303082</v>
       </c>
       <c r="D84">
-        <v>-0.335875778022407</v>
-      </c>
-      <c r="E84">
-        <v>-0.4896742905774131</v>
+        <v>-0.3593877885503577</v>
       </c>
       <c r="F84">
-        <v>-0.4374052683306955</v>
+        <v>-0.4566978829610017</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2275,16 +2290,16 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>0.3123642321191609</v>
+        <v>0.29314576750514</v>
       </c>
       <c r="D85">
-        <v>-0.05201802884013119</v>
+        <v>-0.06494566320940745</v>
       </c>
       <c r="E85">
-        <v>-0.1971241775754772</v>
+        <v>-0.2034752824235561</v>
       </c>
       <c r="F85">
-        <v>-0.2320593263394746</v>
+        <v>-0.2316172640688275</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2295,10 +2310,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>-0.0251113300734407</v>
-      </c>
-      <c r="D86">
-        <v>-0.4527204150216638</v>
+        <v>-0.08405320788237849</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2309,16 +2321,16 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>0.1553435727140035</v>
+        <v>0.1040654045339703</v>
       </c>
       <c r="D87">
-        <v>-0.2174360841455056</v>
+        <v>-0.2385536066895712</v>
       </c>
       <c r="E87">
-        <v>-0.2809510127722561</v>
+        <v>-0.3159787736429308</v>
       </c>
       <c r="F87">
-        <v>-0.1850086777569641</v>
+        <v>-0.2404771322571736</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2329,13 +2341,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>-0.06763535816786817</v>
+        <v>-0.08432758828100781</v>
       </c>
       <c r="D88">
-        <v>-0.4099960202986983</v>
-      </c>
-      <c r="F88">
-        <v>-0.499460151627911</v>
+        <v>-0.4146285741633357</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2346,7 +2355,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>-0.233522723742919</v>
+        <v>-0.2227351140746625</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2357,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>-0.259677319784374</v>
+        <v>-0.1998029140530161</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2368,10 +2377,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>-0.1033312415025163</v>
+        <v>-0.1353910644496884</v>
       </c>
       <c r="D91">
-        <v>-0.3899093991970362</v>
+        <v>-0.437114987462088</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2382,10 +2391,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>-0.1592590691176413</v>
-      </c>
-      <c r="D92">
-        <v>-0.4926682309849512</v>
+        <v>-0.127884404815057</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2396,10 +2402,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>0.003264685892356452</v>
+        <v>-0.03480250091268941</v>
       </c>
       <c r="D93">
-        <v>-0.3600582893086194</v>
+        <v>-0.437728287871651</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2410,16 +2416,13 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>-0.1977127159248866</v>
+        <v>-0.165292705916607</v>
       </c>
       <c r="D94">
-        <v>-0.4567996311601647</v>
+        <v>-0.3721283490303155</v>
       </c>
       <c r="E94">
-        <v>-0.4945176092092051</v>
-      </c>
-      <c r="F94">
-        <v>-0.4641222260494421</v>
+        <v>-0.4738325462028523</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2430,7 +2433,10 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>-0.1803374367041547</v>
+        <v>-0.09049732650294125</v>
+      </c>
+      <c r="D95">
+        <v>-0.4033026571711029</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2441,7 +2447,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>-0.2873812305656467</v>
+        <v>-0.3057540248183102</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2452,13 +2458,13 @@
         <v>100</v>
       </c>
       <c r="D97">
-        <v>0.0237575249141337</v>
+        <v>0.1782843535168801</v>
       </c>
       <c r="E97">
-        <v>-0.1645806536847218</v>
+        <v>0.04287195338396133</v>
       </c>
       <c r="F97">
-        <v>-0.09572639865857867</v>
+        <v>0.1764203143196723</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2469,13 +2475,13 @@
         <v>101</v>
       </c>
       <c r="D98">
-        <v>0.1614083529592837</v>
+        <v>0.2465236102565155</v>
       </c>
       <c r="E98">
-        <v>0.01738522504458168</v>
+        <v>0.07782979722115799</v>
       </c>
       <c r="F98">
-        <v>0.1334703240259712</v>
+        <v>0.1429514558550482</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2486,13 +2492,13 @@
         <v>102</v>
       </c>
       <c r="D99">
-        <v>0.3197688378346099</v>
+        <v>0.395815868842703</v>
       </c>
       <c r="E99">
-        <v>0.1393747747038572</v>
+        <v>0.2816848596460593</v>
       </c>
       <c r="F99">
-        <v>0.2034599008880338</v>
+        <v>0.3769831727649593</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2503,13 +2509,13 @@
         <v>103</v>
       </c>
       <c r="D100">
-        <v>0.3677046493990795</v>
+        <v>0.391466409436189</v>
       </c>
       <c r="E100">
-        <v>0.2584553694352612</v>
+        <v>0.2230652329788543</v>
       </c>
       <c r="F100">
-        <v>0.3719193596784938</v>
+        <v>0.2700236297307467</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2520,13 +2526,13 @@
         <v>104</v>
       </c>
       <c r="D101">
-        <v>0.3103986919050237</v>
+        <v>0.3343247741993043</v>
       </c>
       <c r="E101">
-        <v>0.1596039206438077</v>
+        <v>0.1892971296946303</v>
       </c>
       <c r="F101">
-        <v>0.2373162267991794</v>
+        <v>0.0670796042269346</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2537,13 +2543,13 @@
         <v>105</v>
       </c>
       <c r="D102">
-        <v>0.2319338379980301</v>
+        <v>0.2082673308452255</v>
       </c>
       <c r="E102">
-        <v>0.08346860522744347</v>
+        <v>0.06900027285554509</v>
       </c>
       <c r="F102">
-        <v>0.1023241716888676</v>
+        <v>0.005666355059153699</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2554,13 +2560,13 @@
         <v>106</v>
       </c>
       <c r="D103">
-        <v>0.3460770195692719</v>
+        <v>0.2043858239004333</v>
       </c>
       <c r="E103">
-        <v>0.2084866280598115</v>
+        <v>0.02415100586491473</v>
       </c>
       <c r="F103">
-        <v>0.08359246036752987</v>
+        <v>-0.02114111203952111</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2571,13 +2577,13 @@
         <v>107</v>
       </c>
       <c r="D104">
-        <v>0.3953185454077007</v>
+        <v>0.3689327343445793</v>
       </c>
       <c r="E104">
-        <v>0.2540365453292073</v>
+        <v>0.2290994136803344</v>
       </c>
       <c r="F104">
-        <v>0.3114812219069489</v>
+        <v>0.2263605512146195</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2588,13 +2594,13 @@
         <v>108</v>
       </c>
       <c r="D105">
-        <v>0.2719645052641151</v>
+        <v>0.2767593163499227</v>
       </c>
       <c r="E105">
-        <v>0.1127525454721183</v>
+        <v>0.1189578137657683</v>
       </c>
       <c r="F105">
-        <v>-0.0549066684946027</v>
+        <v>-0.04552030999873875</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2605,13 +2611,13 @@
         <v>109</v>
       </c>
       <c r="D106">
-        <v>0.3908127011536879</v>
+        <v>0.3259805565111896</v>
       </c>
       <c r="E106">
-        <v>0.203380576107462</v>
+        <v>0.1442997334323819</v>
       </c>
       <c r="F106">
-        <v>0.09202238279475554</v>
+        <v>0.08137099162453204</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2622,10 +2628,7 @@
         <v>110</v>
       </c>
       <c r="E107">
-        <v>0.4742235517939847</v>
-      </c>
-      <c r="F107">
-        <v>0.4971892695283631</v>
+        <v>0.4909918063035523</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2636,10 +2639,10 @@
         <v>111</v>
       </c>
       <c r="E108">
-        <v>0.4912739113847704</v>
+        <v>0.4653951220237527</v>
       </c>
       <c r="F108">
-        <v>0.3578108088272953</v>
+        <v>0.4058012131670509</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2649,11 +2652,8 @@
       <c r="B109" t="s">
         <v>112</v>
       </c>
-      <c r="E109">
-        <v>0.4778639597817289</v>
-      </c>
       <c r="F109">
-        <v>0.4234460563086555</v>
+        <v>0.4401595200825993</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2664,7 +2664,7 @@
         <v>113</v>
       </c>
       <c r="F110">
-        <v>0.4398024268150803</v>
+        <v>0.3712995586824501</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2675,7 +2675,7 @@
         <v>114</v>
       </c>
       <c r="F111">
-        <v>0.4939099812167898</v>
+        <v>0.4903144224509481</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>115</v>
       </c>
       <c r="F112">
-        <v>0.499629634256735</v>
+        <v>0.4999823953749233</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2697,7 +2697,7 @@
         <v>116</v>
       </c>
       <c r="F113">
-        <v>0.4633440403860553</v>
+        <v>0.4843888489157585</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2708,7 +2708,7 @@
         <v>117</v>
       </c>
       <c r="F114">
-        <v>0.4757754571418562</v>
+        <v>0.4709120433596172</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2719,7 +2719,7 @@
         <v>118</v>
       </c>
       <c r="F115">
-        <v>0.4946707185596261</v>
+        <v>0.4674500193314738</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2730,7 +2730,18 @@
         <v>119</v>
       </c>
       <c r="F116">
-        <v>0.4518121322170329</v>
+        <v>0.426499673693347</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F117">
+        <v>0.3816161140889838</v>
       </c>
     </row>
   </sheetData>
